--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H2">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I2">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J2">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>157.5210619903267</v>
+        <v>320.1638059400084</v>
       </c>
       <c r="R2">
-        <v>1417.68955791294</v>
+        <v>2881.474253460075</v>
       </c>
       <c r="S2">
-        <v>0.7453494960034609</v>
+        <v>0.798837679977327</v>
       </c>
       <c r="T2">
-        <v>0.7453494960034607</v>
+        <v>0.798837679977327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H3">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I3">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J3">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>16.73590012021378</v>
+        <v>32.64688972515722</v>
       </c>
       <c r="R3">
-        <v>150.623101081924</v>
+        <v>293.822007526415</v>
       </c>
       <c r="S3">
-        <v>0.07919001155878207</v>
+        <v>0.08145694535942319</v>
       </c>
       <c r="T3">
-        <v>0.07919001155878205</v>
+        <v>0.08145694535942317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H4">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I4">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J4">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>10.45818847070089</v>
+        <v>20.40089408250612</v>
       </c>
       <c r="R4">
-        <v>94.12369623630801</v>
+        <v>183.608046742555</v>
       </c>
       <c r="S4">
-        <v>0.04948548090810104</v>
+        <v>0.05090207761144014</v>
       </c>
       <c r="T4">
-        <v>0.04948548090810104</v>
+        <v>0.05090207761144014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>3.064807951660001</v>
+        <v>3.19333243138</v>
       </c>
       <c r="R5">
-        <v>27.58327156494001</v>
+        <v>28.73999188242</v>
       </c>
       <c r="S5">
-        <v>0.01450188967274397</v>
+        <v>0.00796765350596172</v>
       </c>
       <c r="T5">
-        <v>0.01450188967274396</v>
+        <v>0.007967653505961722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
-        <v>0.3256219779026667</v>
+        <v>0.3256219779026666</v>
       </c>
       <c r="R6">
-        <v>2.930597801124</v>
+        <v>2.930597801123999</v>
       </c>
       <c r="S6">
-        <v>0.001540760162804812</v>
+        <v>0.0008124563131478241</v>
       </c>
       <c r="T6">
-        <v>0.001540760162804812</v>
+        <v>0.0008124563131478241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.302988</v>
       </c>
       <c r="I7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
         <v>0.2034797047453333</v>
@@ -880,10 +880,10 @@
         <v>1.831317342708</v>
       </c>
       <c r="S7">
-        <v>0.0009628140736391228</v>
+        <v>0.0005077002841841883</v>
       </c>
       <c r="T7">
-        <v>0.0009628140736391226</v>
+        <v>0.0005077002841841884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.941521</v>
       </c>
       <c r="I8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N8">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O8">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P8">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q8">
-        <v>19.63902530501167</v>
+        <v>20.46259909800166</v>
       </c>
       <c r="R8">
-        <v>176.751227745105</v>
+        <v>184.163391882015</v>
       </c>
       <c r="S8">
-        <v>0.09292685960934273</v>
+        <v>0.05105603721120409</v>
       </c>
       <c r="T8">
-        <v>0.0929268596093427</v>
+        <v>0.0510560372112041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.941521</v>
       </c>
       <c r="I9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P9">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q9">
         <v>2.086557580364778</v>
@@ -1004,10 +1004,10 @@
         <v>18.779018223283</v>
       </c>
       <c r="S9">
-        <v>0.009873058378711242</v>
+        <v>0.005206150057292951</v>
       </c>
       <c r="T9">
-        <v>0.009873058378711237</v>
+        <v>0.005206150057292951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.941521</v>
       </c>
       <c r="I10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N10">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q10">
         <v>1.303880417167889</v>
@@ -1066,10 +1066,10 @@
         <v>11.734923754511</v>
       </c>
       <c r="S10">
-        <v>0.006169629632414166</v>
+        <v>0.00325329968001891</v>
       </c>
       <c r="T10">
-        <v>0.006169629632414164</v>
+        <v>0.00325329968001891</v>
       </c>
     </row>
   </sheetData>
